--- a/DossierArtistes/PROJET2webEX.xlsx
+++ b/DossierArtistes/PROJET2webEX.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proget2017v2\Proget2v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\Proget2017v2\Proget2v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="4335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17120" windowHeight="4340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="button" sheetId="5" r:id="rId2"/>
+    <sheet name="ProgrammesUtil" sheetId="4" r:id="rId3"/>
+    <sheet name="LieuxPages" sheetId="2" r:id="rId4"/>
+    <sheet name="Langues" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="138">
   <si>
     <t>Dimension de l'oeuvre :13 x 13 cm</t>
   </si>
@@ -223,13 +226,229 @@
   </si>
   <si>
     <t>http://www.carredartistes.com/fr/</t>
+  </si>
+  <si>
+    <t>Экспозиция</t>
+  </si>
+  <si>
+    <t>Бутик</t>
+  </si>
+  <si>
+    <t>Художники</t>
+  </si>
+  <si>
+    <t>Новости</t>
+  </si>
+  <si>
+    <t>Видео</t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>Exposition</t>
+  </si>
+  <si>
+    <t>Boutique</t>
+  </si>
+  <si>
+    <t>Artistes</t>
+  </si>
+  <si>
+    <t>Nouvelles</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Artists</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Contactes</t>
+  </si>
+  <si>
+    <t>Exposición</t>
+  </si>
+  <si>
+    <t>Artistas</t>
+  </si>
+  <si>
+    <t>Noticias</t>
+  </si>
+  <si>
+    <t>Contactos</t>
+  </si>
+  <si>
+    <t>Vídeos</t>
+  </si>
+  <si>
+    <t>Tienda</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>adress</t>
+  </si>
+  <si>
+    <t>http://opiy.org/psto/180</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>upload/catalog/controller/extension/module</t>
+  </si>
+  <si>
+    <t>upload/catalog/controller/common</t>
+  </si>
+  <si>
+    <t>footer.php</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/en-gb/common</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/fr-fr/common</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/ru-ru/common</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/es-es/common</t>
+  </si>
+  <si>
+    <t>trois_artistes.php</t>
+  </si>
+  <si>
+    <t>Trois_artistes</t>
+  </si>
+  <si>
+    <t>Three artists</t>
+  </si>
+  <si>
+    <t>Tres artistas</t>
+  </si>
+  <si>
+    <t>Trois artistes</t>
+  </si>
+  <si>
+    <t>Три художника</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/w3css/tryit.asp?filename=tryw3css_buttons_width_size</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/w3css/w3css_buttons.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/tags/tryit.asp?filename=tryhtml_a_href</t>
+  </si>
+  <si>
+    <t>Nom de Module</t>
+  </si>
+  <si>
+    <t>Nom de fichie</t>
+  </si>
+  <si>
+    <t>Liew</t>
+  </si>
+  <si>
+    <t>exposition.php</t>
+  </si>
+  <si>
+    <t>menu.php</t>
+  </si>
+  <si>
+    <t>upload/admin/controller/extension/module</t>
+  </si>
+  <si>
+    <t>Nom de Page</t>
+  </si>
+  <si>
+    <t>upload/admin/view/template/extension/module/</t>
+  </si>
+  <si>
+    <t>trois_artistes.tpl</t>
+  </si>
+  <si>
+    <t>menu.tpl</t>
+  </si>
+  <si>
+    <t>exposition.tpl</t>
+  </si>
+  <si>
+    <t>upload/admin/language/en-gb/exposition/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/view/template/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/en-gb/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/fr-fr/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/es-es/extension/module/</t>
+  </si>
+  <si>
+    <t>upload/catalog/language/ru-ru/extension/module/</t>
+  </si>
+  <si>
+    <t>boutique.php</t>
+  </si>
+  <si>
+    <t>artistes.php</t>
+  </si>
+  <si>
+    <t>nouvelles.php</t>
+  </si>
+  <si>
+    <t>videos.php</t>
+  </si>
+  <si>
+    <t>contactes.php</t>
+  </si>
+  <si>
+    <t>Le tableau</t>
+  </si>
+  <si>
+    <t>Картина</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Corps</t>
+  </si>
+  <si>
+    <t>Tело</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Cuerpo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +488,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +506,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -301,12 +529,294 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -322,10 +832,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,9 +999,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -500,9 +1046,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -547,9 +1093,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -594,9 +1140,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -641,9 +1187,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -688,9 +1234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -735,9 +1281,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -782,9 +1328,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -829,9 +1375,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -876,9 +1422,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -923,9 +1469,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -970,9 +1516,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1017,9 +1563,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1064,9 +1610,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1111,9 +1657,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1158,9 +1704,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1205,9 +1751,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1252,9 +1798,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1299,9 +1845,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1346,9 +1892,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1393,9 +1939,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1440,9 +1986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1487,9 +2033,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1534,9 +2080,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1581,9 +2127,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1621,9 +2167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1661,7 +2207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1733,7 +2279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1886,35 +2432,35 @@
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="F19" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +2483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1960,7 +2506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +2529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2029,7 +2575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +2598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2069,7 +2615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="I12" t="s">
@@ -2105,7 +2651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2119,14 +2665,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="M14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
@@ -2134,11 +2680,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
@@ -2146,34 +2692,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" ht="29" x14ac:dyDescent="0.35">
       <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" ht="29" x14ac:dyDescent="0.35">
       <c r="F23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" ht="29" x14ac:dyDescent="0.35">
       <c r="F25" s="4" t="s">
         <v>30</v>
       </c>
@@ -2227,7 +2773,7 @@
     <hyperlink ref="M14" r:id="rId45" display="http://www.galeriebeauchamp.com/art/fr/subject?subject=28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId46"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId46"/>
   <drawing r:id="rId47"/>
   <legacyDrawing r:id="rId48"/>
   <controls>
@@ -2244,9 +2790,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2269,9 +2815,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2294,9 +2840,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2319,9 +2865,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2344,9 +2890,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2369,9 +2915,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2394,9 +2940,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2419,9 +2965,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2444,9 +2990,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2469,9 +3015,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2494,9 +3040,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2519,9 +3065,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2544,9 +3090,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2569,9 +3115,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2594,9 +3140,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2619,9 +3165,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2644,9 +3190,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2669,9 +3215,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2694,9 +3240,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2719,9 +3265,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2744,9 +3290,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2769,9 +3315,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2794,9 +3340,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2819,9 +3365,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2844,9 +3390,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -2862,20 +3408,505 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="20"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="20"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="18"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="18"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="35"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="36"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="39"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="39"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="33"/>
+      <c r="B41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="20"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C16" r:id="rId2" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C22" r:id="rId3" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+    <hyperlink ref="C33" r:id="rId4" tooltip="exposition.php" display="https://github.com/Tyurinam/ArtBoutiqueLvovna/blob/master/OpenCartLocalMarina/admin/controller/extension/module/exposition.php"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2883,7 +3914,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2892,7 +3923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A7" si="0">A4+1</f>
         <v>3</v>
@@ -2901,7 +3932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2910,7 +3941,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2919,26 +3950,36 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2949,8 +3990,159 @@
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
     <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>